--- a/Sprint1/week1/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint1/week1/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/Embedded_system_group25/Embedded_system_group25/Sprint1/week1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6120B647-5FB9-491A-9D70-369BFFF2C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE6E627-1253-4EDD-BFD6-6E6E15D448EF}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{6120B647-5FB9-491A-9D70-369BFFF2C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8A91C0-62E9-4467-A90E-B1AF5BEFC2C3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="184">
   <si>
     <t>Project:</t>
   </si>
@@ -585,6 +585,21 @@
   <si>
     <t xml:space="preserve">Celine Zanders </t>
   </si>
+  <si>
+    <t>Additional Meeting</t>
+  </si>
+  <si>
+    <t>Sprint Task 1.1: Reading Study Guide</t>
+  </si>
+  <si>
+    <t>Sprint Task 1.2: Idea Generation</t>
+  </si>
+  <si>
+    <t>Sprint Task 1.3: Research on L293D</t>
+  </si>
+  <si>
+    <t>Sprint Task 1.4: Filling Preliminary Rubric</t>
+  </si>
 </sst>
 </file>
 
@@ -862,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -948,7 +963,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,7 +1090,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26</c:v>
@@ -1305,7 +1319,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>26.291666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1344,7 +1358,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>26.291666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1890,7 +1904,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
@@ -1899,10 +1913,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5</c:v>
+                  <c:v>3.5833333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -8277,7 +8291,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -11186,7 +11200,7 @@
       <c r="W122" s="15"/>
       <c r="X122" s="15"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="49"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -11209,7 +11223,7 @@
       <c r="W123" s="15"/>
       <c r="X123" s="15"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="49"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -11232,7 +11246,7 @@
       <c r="W124" s="15"/>
       <c r="X124" s="15"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="49"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -11255,7 +11269,7 @@
       <c r="W125" s="15"/>
       <c r="X125" s="15"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="49"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -11278,7 +11292,7 @@
       <c r="W126" s="15"/>
       <c r="X126" s="15"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="49"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -11301,7 +11315,7 @@
       <c r="W127" s="15"/>
       <c r="X127" s="15"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="50" t="s">
         <v>153</v>
       </c>
@@ -11356,7 +11370,7 @@
       <c r="W128" s="15"/>
       <c r="X128" s="15"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="49"/>
       <c r="M129" s="52"/>
       <c r="O129" s="15"/>
@@ -20510,8 +20524,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20608,10 +20622,12 @@
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="str">
-        <f t="array" ref="B6">INDEX(Tasks,1,2)</f>
-        <v>Sprint Planning</v>
-      </c>
-      <c r="C6" s="29"/>
+        <f>INDEX(Tasks,5,2)</f>
+        <v>Lectures/Plenary meetings</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -20633,9 +20649,8 @@
       <c r="X6" s="15"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="str">
-        <f t="array" ref="B7">INDEX(Tasks,2,2)</f>
-        <v>Daily Scrum</v>
+      <c r="B7" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -20659,9 +20674,8 @@
       <c r="X7" s="15"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="str">
-        <f t="array" ref="B8">INDEX(Tasks,3,2)</f>
-        <v>Sprint Review</v>
+      <c r="B8" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="31"/>
@@ -20685,11 +20699,12 @@
       <c r="X8" s="15"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="str">
-        <f t="array" ref="B9">INDEX(Tasks,4,2)</f>
-        <v>Sprint Retrospective</v>
-      </c>
-      <c r="C9" s="29"/>
+      <c r="B9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="37">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D9" s="31"/>
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
@@ -20711,11 +20726,12 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="str">
-        <f t="array" ref="B10">INDEX(Tasks,5,2)</f>
-        <v>Lectures/Plenary meetings</v>
-      </c>
-      <c r="C10" s="73"/>
+      <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="35">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D10" s="29"/>
       <c r="E10" s="36"/>
       <c r="F10" s="30"/>
@@ -20737,9 +20753,8 @@
       <c r="X10" s="15"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="str">
-        <f t="array" ref="B11">INDEX(Tasks,6,2)</f>
-        <v>Sprint Tasks</v>
+      <c r="B11" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="29"/>
@@ -20763,10 +20778,7 @@
       <c r="X11" s="18"/>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="str">
-        <f t="array" ref="B12">INDEX(Tasks,7,2)</f>
-        <v xml:space="preserve">Sprint Task 1.1: Read course material </v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="30"/>
@@ -20789,10 +20801,7 @@
       <c r="X12" s="15"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="str">
-        <f t="array" ref="B13">INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 1.2: Feedback on example paper</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="29"/>
       <c r="D13" s="31"/>
       <c r="E13" s="30"/>
@@ -20815,10 +20824,7 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="str">
-        <f t="array" ref="B14">INDEX(Tasks,9,2)</f>
-        <v>Sprint Task 1.3: Create schedule</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -20841,10 +20847,7 @@
       <c r="X14" s="15"/>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="str">
-        <f t="array" ref="B15">INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 1.4: Description Document</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="35"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
@@ -20867,10 +20870,7 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="str">
-        <f t="array" ref="B16">INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 1.5: Planning Document</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="31"/>
       <c r="D16" s="35"/>
       <c r="E16" s="30"/>
@@ -20893,10 +20893,7 @@
       <c r="X16" s="15"/>
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="str">
-        <f t="array" ref="B17">INDEX(Tasks,12,2)</f>
-        <v>Sprint Task 1.6: Requirements Document</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
@@ -20919,10 +20916,7 @@
       <c r="X17" s="15"/>
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="str">
-        <f t="array" ref="B18">INDEX(Tasks,13,2)</f>
-        <v>Sprint Task 2.1 User Interface setup</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="29"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -20945,10 +20939,7 @@
       <c r="X18" s="15"/>
     </row>
     <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="str">
-        <f t="array" ref="B19">INDEX(Tasks,14,2)</f>
-        <v xml:space="preserve">Sprint Task 2.2 Logic </v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="29"/>
       <c r="D19" s="1"/>
       <c r="E19" s="29"/>
@@ -20970,10 +20961,7 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="str">
-        <f t="array" ref="B20">INDEX(Tasks,15,2)</f>
-        <v>Sprint Task 2.3: Internet connectivity</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="31"/>
       <c r="D20" s="37"/>
       <c r="E20" s="34"/>
@@ -20996,10 +20984,7 @@
       <c r="X20" s="15"/>
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="str">
-        <f t="array" ref="B21">INDEX(Tasks,16,2)</f>
-        <v>Sprint Task 2.4: UML diagrams</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="29"/>
       <c r="D21" s="1"/>
       <c r="E21" s="30"/>
@@ -21022,10 +21007,7 @@
       <c r="X21" s="15"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="str">
-        <f t="array" ref="B22">INDEX(Tasks,17,2)</f>
-        <v>Sprint Task 2.5: Midterm Presentation</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
@@ -21048,10 +21030,7 @@
       <c r="X22" s="15"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="str">
-        <f t="array" ref="B23">INDEX(Tasks,18,2)</f>
-        <v>Sprint Task 2.6: Midterm video</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="29"/>
       <c r="D23" s="31"/>
       <c r="E23" s="30"/>
@@ -21074,10 +21053,7 @@
       <c r="X23" s="15"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="str">
-        <f t="array" ref="B24">INDEX(Tasks,19,2)</f>
-        <v>Sprint Task 3.1 Intermediate peer review</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
@@ -21100,10 +21076,7 @@
       <c r="X24" s="15"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="str">
-        <f t="array" ref="B25">INDEX(Tasks,20,2)</f>
-        <v>Sprint Task 3.2 Acceptance Test Plan</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="30"/>
@@ -21128,10 +21101,7 @@
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
-      <c r="B26" s="1" t="str">
-        <f t="array" ref="B26">INDEX(Tasks,21,2)</f>
-        <v>Sprint Task 3.3 User Manual</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="30"/>
@@ -21155,10 +21125,7 @@
     </row>
     <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
-      <c r="B27" s="41" t="str">
-        <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
-        <v>Sprint Task 4.1 App implementation</v>
-      </c>
+      <c r="B27" s="41"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
@@ -21183,10 +21150,7 @@
     </row>
     <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
-      <c r="B28" s="41" t="str">
-        <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
-        <v>Sprint Task 4.2 Final Presentation</v>
-      </c>
+      <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
@@ -21211,10 +21175,7 @@
     </row>
     <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
-      <c r="B29" s="41" t="str">
-        <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
-        <v>Sprint Task 4.3 Acceptance Test</v>
-      </c>
+      <c r="B29" s="41"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
@@ -21239,10 +21200,7 @@
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
-      <c r="B30" s="40" t="str">
-        <f t="array" ref="B30">INDEX(Tasks,25,2)</f>
-        <v>Sprint Task 4.4 Gathering and submitting</v>
-      </c>
+      <c r="B30" s="40"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
       <c r="E30" s="44"/>
@@ -21291,7 +21249,7 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -21317,7 +21275,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -21343,7 +21301,7 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -21369,7 +21327,7 @@
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -23396,7 +23354,7 @@
       <c r="W122" s="15"/>
       <c r="X122" s="15"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="49"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -23419,7 +23377,7 @@
       <c r="W123" s="15"/>
       <c r="X123" s="15"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="49"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -23442,7 +23400,7 @@
       <c r="W124" s="15"/>
       <c r="X124" s="15"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="49"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -23465,7 +23423,7 @@
       <c r="W125" s="15"/>
       <c r="X125" s="15"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="49"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -23488,7 +23446,7 @@
       <c r="W126" s="15"/>
       <c r="X126" s="15"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="49"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -23511,13 +23469,13 @@
       <c r="W127" s="15"/>
       <c r="X127" s="15"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="50" t="s">
         <v>153</v>
       </c>
       <c r="C128" s="51">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="D128" s="51">
         <f t="shared" si="0"/>
@@ -23566,7 +23524,7 @@
       <c r="W128" s="15"/>
       <c r="X128" s="15"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="49"/>
       <c r="M129" s="52"/>
       <c r="O129" s="15"/>
@@ -23586,43 +23544,43 @@
       </c>
       <c r="C130" s="32">
         <f>SUM(C128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="D130" s="15">
         <f>SUM(D128,C128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="E130" s="15">
         <f>SUM(E128,C128,D128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="F130" s="15">
         <f>SUM(C128:F128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G130" s="15">
         <f>SUM(C128:G128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="H130" s="15">
         <f>SUM(C128:H128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="I130" s="15">
         <f>SUM(C128:I128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="J130" s="15">
         <f>SUM(C128:J128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="K130" s="15">
         <f>SUM(C128:K128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="L130" s="15">
         <f>SUM(C128:L128)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="M130" s="52"/>
       <c r="O130" s="15"/>
@@ -23642,43 +23600,43 @@
       </c>
       <c r="C131" s="15">
         <f>Parameters!$G$9-C130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="D131" s="15">
         <f>Parameters!$G$9-D130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="E131" s="15">
         <f>Parameters!$G$9-E130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="F131" s="15">
         <f>Parameters!$G$9-F130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="G131" s="15">
         <f>Parameters!$G$9-G130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="H131" s="15">
         <f>Parameters!$G$9-H130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="I131" s="15">
         <f>Parameters!$G$9-I130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="J131" s="15">
         <f>Parameters!$G$9-J130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="K131" s="15">
         <f>Parameters!$G$9-K130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="L131" s="15">
         <f>Parameters!$G$9-L130</f>
-        <v>5.833333333333333</v>
+        <v>5.5416666666666661</v>
       </c>
       <c r="O131" s="15"/>
       <c r="P131" s="15"/>
@@ -28715,7 +28673,7 @@
       </c>
       <c r="C6" s="57">
         <f>SUM('Serkan Efe Durusu'!C6,'Ismail Elmasry'!C6,'can Işmar'!C6,'Marios Papalouka'!C6,'Metehan Topaç'!C6,'Celine Zanders '!C6)</f>
-        <v>2</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="D6" s="57">
         <f>SUM('Serkan Efe Durusu'!D6,'Ismail Elmasry'!D6,'can Işmar'!D6,'Marios Papalouka'!D6,'Metehan Topaç'!D6,'Celine Zanders '!D6)</f>
@@ -28755,7 +28713,7 @@
       </c>
       <c r="M6" s="58">
         <f t="shared" ref="M6:M122" si="0">SUM(C6:L6)</f>
-        <v>2</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="N6" s="59" t="str">
         <f t="array" ref="N6">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
@@ -28877,7 +28835,7 @@
       </c>
       <c r="C9" s="57">
         <f>SUM('Serkan Efe Durusu'!C9,'Ismail Elmasry'!C9,'can Işmar'!C9,'Marios Papalouka'!C9,'Metehan Topaç'!C9,'Celine Zanders '!C9)</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D9" s="57">
         <f>SUM('Serkan Efe Durusu'!D9,'Ismail Elmasry'!D9,'can Işmar'!D9,'Marios Papalouka'!D9,'Metehan Topaç'!D9,'Celine Zanders '!D9)</f>
@@ -28917,7 +28875,7 @@
       </c>
       <c r="M9" s="60">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N9" s="59" t="str">
         <f t="array" ref="N9">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M9/INDEX(Tasks,2,3),"")</f>
@@ -28931,7 +28889,7 @@
       </c>
       <c r="C10" s="57">
         <f>SUM('Serkan Efe Durusu'!C10,'Ismail Elmasry'!C10,'can Işmar'!C10,'Marios Papalouka'!C10,'Metehan Topaç'!C10,'Celine Zanders '!C10)</f>
-        <v>3.5</v>
+        <v>3.5833333333333335</v>
       </c>
       <c r="D10" s="57">
         <f>SUM('Serkan Efe Durusu'!D10,'Ismail Elmasry'!D10,'can Işmar'!D10,'Marios Papalouka'!D10,'Metehan Topaç'!D10,'Celine Zanders '!D10)</f>
@@ -28971,7 +28929,7 @@
       </c>
       <c r="M10" s="60">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.5833333333333335</v>
       </c>
       <c r="N10" s="59" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -35280,7 +35238,7 @@
       </c>
       <c r="C139" s="30">
         <f>'Metehan Topaç'!C128</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="D139" s="30">
         <f>'Metehan Topaç'!D128</f>
@@ -35320,7 +35278,7 @@
       </c>
       <c r="M139" s="65">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="140" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35456,7 +35414,7 @@
     <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="65">
         <f t="shared" ref="C143:L143" si="2">SUM(C135:C142)</f>
-        <v>26</v>
+        <v>26.291666666666668</v>
       </c>
       <c r="D143" s="65">
         <f t="shared" si="2"/>
@@ -35496,7 +35454,7 @@
       </c>
       <c r="M143" s="65">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>26.291666666666668</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
